--- a/listaEmail.xlsx
+++ b/listaEmail.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simoninja\Documents\UiPath\Teste_EnvioEmail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04779AC-1CB9-4E45-864D-0B035969D8A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3F2B8A-B1EE-4958-883C-A7A2E2911EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11070" yWindow="3570" windowWidth="23805" windowHeight="14265" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25620" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>email</t>
   </si>
@@ -42,25 +42,31 @@
     <t>assunto</t>
   </si>
   <si>
-    <t>Simone Crepaldi</t>
-  </si>
-  <si>
-    <t>Felipe Zuchowski</t>
-  </si>
-  <si>
-    <t>Simone Cristina</t>
-  </si>
-  <si>
-    <t>sccrepaldi@gmail.com</t>
-  </si>
-  <si>
-    <t>felipe.zuchowski@gmail.com</t>
-  </si>
-  <si>
-    <t>hallo.cristina@gmail.com</t>
-  </si>
-  <si>
     <t>Lembrete - conta</t>
+  </si>
+  <si>
+    <t>maria123@gmail.com</t>
+  </si>
+  <si>
+    <t>maria234@gmail.com</t>
+  </si>
+  <si>
+    <t>maria345@gmail.com</t>
+  </si>
+  <si>
+    <t>Maria 123</t>
+  </si>
+  <si>
+    <t>Maria 234</t>
+  </si>
+  <si>
+    <t>Maria 345</t>
+  </si>
+  <si>
+    <t>Maria 456</t>
+  </si>
+  <si>
+    <t>maria456@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -68,9 +74,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;R$&quot;\ #,##0;[Red]\-&quot;R$&quot;\ #,##0"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +88,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -104,18 +117,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -394,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,6 +420,7 @@
     <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -418,7 +434,7 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -427,53 +443,70 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>45091</v>
       </c>
       <c r="D2" s="3">
-        <v>1500</v>
+        <v>1562.15</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
         <v>45092</v>
       </c>
       <c r="D3" s="3">
-        <v>1000</v>
+        <v>147.58000000000001</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
         <v>45097</v>
       </c>
       <c r="D4" s="3">
-        <v>121</v>
+        <v>698.5</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2">
+        <v>45120</v>
+      </c>
+      <c r="D5" s="3">
+        <v>187.56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -481,6 +514,7 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{CD01619C-9BAA-45FE-AA8D-C114BD29C986}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{17A44A3E-ED03-4CF7-B29A-802586C8C55A}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{D95202DD-CF4E-4C1C-ABF6-3050D9472BCB}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{5898C1E1-E2C6-4928-BBFE-5055F858CF95}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
